--- a/supplementary_material/SupplementaryFile11_top100_human.xlsx
+++ b/supplementary_material/SupplementaryFile11_top100_human.xlsx
@@ -1,35 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23516"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\sziemaj\Articles\JoC\Covid19\article\Supplementary_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E96E034-DD50-4180-86E4-4B76284EEC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5AAA4C0-6D57-4C60-A2A8-01E1CB474D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="top 100 human database matches" sheetId="1" r:id="rId1"/>
+    <sheet name="16 bat database matches" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
   <si>
     <t>accession number</t>
   </si>
   <si>
+    <t>human db p-value</t>
+  </si>
+  <si>
+    <t>human db mean query PCC</t>
+  </si>
+  <si>
+    <t>bat db p-value</t>
+  </si>
+  <si>
+    <t>bat db mean PCC</t>
+  </si>
+  <si>
     <t>LC570961.1</t>
   </si>
   <si>
@@ -330,23 +352,59 @@
     <t>MT806885.1</t>
   </si>
   <si>
-    <t>human db p-value</t>
-  </si>
-  <si>
-    <t>human db mean query PCC</t>
-  </si>
-  <si>
-    <t>bat db p-value</t>
-  </si>
-  <si>
-    <t>bat db mean PCC</t>
+    <t>GQ153546.1</t>
+  </si>
+  <si>
+    <t>GQ153547.1</t>
+  </si>
+  <si>
+    <t>GQ153548.1</t>
+  </si>
+  <si>
+    <t>GU190215.1</t>
+  </si>
+  <si>
+    <t>JX993987.1</t>
+  </si>
+  <si>
+    <t>JX993988.1</t>
+  </si>
+  <si>
+    <t>KC881005.1</t>
+  </si>
+  <si>
+    <t>KC881006.1</t>
+  </si>
+  <si>
+    <t>KF294457.1</t>
+  </si>
+  <si>
+    <t>KF367457.1</t>
+  </si>
+  <si>
+    <t>KP886808.1</t>
+  </si>
+  <si>
+    <t>KP886809.1</t>
+  </si>
+  <si>
+    <t>KU182964.1</t>
+  </si>
+  <si>
+    <t>KY417142.1</t>
+  </si>
+  <si>
+    <t>KY417143.1</t>
+  </si>
+  <si>
+    <t>KY417144.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,9 +740,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -693,26 +753,26 @@
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0.42403972583372102</v>
@@ -729,9 +789,9 @@
       <c r="H2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0.36529917339951301</v>
@@ -748,9 +808,9 @@
       <c r="H3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0.33226916917163302</v>
@@ -766,9 +826,9 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>1.0029867643934701E-40</v>
@@ -784,9 +844,9 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0.306260646693783</v>
@@ -802,9 +862,9 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0.62527386041704003</v>
@@ -820,9 +880,9 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0.31643507879646698</v>
@@ -838,9 +898,9 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0.304342286736205</v>
@@ -856,9 +916,9 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0.304342286736205</v>
@@ -874,9 +934,9 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0.25830547865283299</v>
@@ -892,9 +952,9 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>0.304342286736205</v>
@@ -910,9 +970,9 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0.304342286736205</v>
@@ -928,9 +988,9 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0.25830547865283299</v>
@@ -946,9 +1006,9 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>0.306839363536688</v>
@@ -964,9 +1024,9 @@
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>0.30788227443807598</v>
@@ -982,9 +1042,9 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0.304342286736205</v>
@@ -1000,9 +1060,9 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0.45679179019357902</v>
@@ -1018,9 +1078,9 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0.321889442647734</v>
@@ -1036,9 +1096,9 @@
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>0.314944270045244</v>
@@ -1054,9 +1114,9 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>0.287284847571042</v>
@@ -1072,9 +1132,9 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>0.50851269660847698</v>
@@ -1090,9 +1150,9 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>0.30255206892048703</v>
@@ -1109,9 +1169,9 @@
       <c r="H23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>0.351715933645738</v>
@@ -1128,9 +1188,9 @@
       <c r="H24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>0.39350412829139098</v>
@@ -1146,9 +1206,9 @@
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>0.34760900442984499</v>
@@ -1164,9 +1224,9 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0.35995173945960401</v>
@@ -1182,9 +1242,9 @@
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>0.26448246507237699</v>
@@ -1200,9 +1260,9 @@
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>0.30080651187679802</v>
@@ -1218,9 +1278,9 @@
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>0.35466771339460201</v>
@@ -1236,9 +1296,9 @@
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0.34180831491309799</v>
@@ -1254,9 +1314,9 @@
       </c>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>0.30255206892048703</v>
@@ -1272,9 +1332,9 @@
       </c>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>0.34180831491309799</v>
@@ -1290,9 +1350,9 @@
       </c>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>0.30686123433902002</v>
@@ -1308,9 +1368,9 @@
       </c>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0.332510638085669</v>
@@ -1326,9 +1386,9 @@
       </c>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>0.31673481253256303</v>
@@ -1344,9 +1404,9 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0.35995173945960401</v>
@@ -1361,9 +1421,9 @@
         <v>0.69506204707299402</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0.33759262890838698</v>
@@ -1378,9 +1438,9 @@
         <v>0.69569537642110602</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>0.36406368505694803</v>
@@ -1395,9 +1455,9 @@
         <v>0.69571892672386204</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>0.409644712773933</v>
@@ -1412,9 +1472,9 @@
         <v>0.69427578035580795</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>0.47521573159772401</v>
@@ -1429,9 +1489,9 @@
         <v>0.69419370071078501</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0.30255206892048703</v>
@@ -1446,9 +1506,9 @@
         <v>0.69599358651910104</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>0.31241498105836701</v>
@@ -1463,9 +1523,9 @@
         <v>0.69598820395137495</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>0.36932069406691398</v>
@@ -1480,9 +1540,9 @@
         <v>0.69508137200775899</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0.34197122571872801</v>
@@ -1497,9 +1557,9 @@
         <v>0.69543959447084003</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>0.31072705613343699</v>
@@ -1514,9 +1574,9 @@
         <v>0.69574861214619699</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>0.35995173945960401</v>
@@ -1531,9 +1591,9 @@
         <v>0.69506204707299402</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>0.30657693369308597</v>
@@ -1548,9 +1608,9 @@
         <v>0.69600816013933597</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0.50457731464436795</v>
@@ -1565,9 +1625,9 @@
         <v>0.69441053047202095</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>0.305489618950885</v>
@@ -1582,9 +1642,9 @@
         <v>0.69593954427845595</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0.35862314318014399</v>
@@ -1599,9 +1659,9 @@
         <v>0.69510597004059105</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0.75901571085957997</v>
@@ -1616,9 +1676,9 @@
         <v>0.69096807219230405</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>0.43283622540892502</v>
@@ -1633,9 +1693,9 @@
         <v>0.69505866144126305</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>0.42739611488353402</v>
@@ -1650,9 +1710,9 @@
         <v>0.69573452292121696</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>0.27065495547960999</v>
@@ -1667,9 +1727,9 @@
         <v>0.695763016969423</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>0.31250446252115599</v>
@@ -1684,9 +1744,9 @@
         <v>0.69601220086795601</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0.47452317293789198</v>
@@ -1701,9 +1761,9 @@
         <v>0.69492779313789199</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1">
         <v>3.6556149717957299E-47</v>
@@ -1718,9 +1778,9 @@
         <v>0.63647389144477995</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>0.35995173945960401</v>
@@ -1735,9 +1795,9 @@
         <v>0.69506204707299402</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>0.370950540860642</v>
@@ -1752,9 +1812,9 @@
         <v>0.695476707955897</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>0.304342286736205</v>
@@ -1769,9 +1829,9 @@
         <v>0.69596176669026699</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0.36552112751821803</v>
@@ -1786,9 +1846,9 @@
         <v>0.69495449770434603</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>0.30909050074503602</v>
@@ -1803,9 +1863,9 @@
         <v>0.69577643038168002</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>0.30224872058491298</v>
@@ -1820,9 +1880,9 @@
         <v>0.69597033274277997</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>0.40732893246028401</v>
@@ -1837,9 +1897,9 @@
         <v>0.69497917857967295</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B66">
         <v>0.30255206892048703</v>
@@ -1854,9 +1914,9 @@
         <v>0.69599358651910104</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B67">
         <v>0.391411325078804</v>
@@ -1871,9 +1931,9 @@
         <v>0.69010417005809399</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B68">
         <v>4.4580739116568402E-3</v>
@@ -1888,9 +1948,9 @@
         <v>0.68780825974800697</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B69">
         <v>0.95795917300255595</v>
@@ -1905,9 +1965,9 @@
         <v>0.69371365997593004</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0.120948803750995</v>
@@ -1922,9 +1982,9 @@
         <v>0.69002699717643301</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B71">
         <v>0.78250649419793405</v>
@@ -1939,9 +1999,9 @@
         <v>0.69217701856459002</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B72">
         <v>0.74449803357197597</v>
@@ -1956,9 +2016,9 @@
         <v>0.69414014333068597</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B73">
         <v>0.48273151758106198</v>
@@ -1973,9 +2033,9 @@
         <v>0.69388261977640997</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B74">
         <v>0.84168290564135095</v>
@@ -1990,9 +2050,9 @@
         <v>0.69435631772548101</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B75">
         <v>0.84168290564135095</v>
@@ -2007,9 +2067,9 @@
         <v>0.69435631772548101</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0.93736052361528599</v>
@@ -2024,9 +2084,9 @@
         <v>0.69386324423629098</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B77">
         <v>0.55221177377915098</v>
@@ -2041,9 +2101,9 @@
         <v>0.69140807893014</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B78">
         <v>0.66339147238141205</v>
@@ -2058,9 +2118,9 @@
         <v>0.69255768402942397</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B79">
         <v>0.33853927048693999</v>
@@ -2075,9 +2135,9 @@
         <v>0.69378078094919304</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B80">
         <v>0.114757829389234</v>
@@ -2092,9 +2152,9 @@
         <v>0.69145181900038799</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B81">
         <v>0.85833053241943502</v>
@@ -2109,9 +2169,9 @@
         <v>0.69449666257605402</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B82">
         <v>0.27001783730428303</v>
@@ -2126,9 +2186,9 @@
         <v>0.69318975046131703</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B83">
         <v>0.98801313739516705</v>
@@ -2143,9 +2203,9 @@
         <v>0.69411189531974804</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>9.8752371555885704E-2</v>
@@ -2160,9 +2220,9 @@
         <v>0.69267243764516195</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B85">
         <v>0.49976027007546903</v>
@@ -2177,9 +2237,9 @@
         <v>0.69032379500395602</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B86" s="1">
         <v>2.5353661251212199E-38</v>
@@ -2194,9 +2254,9 @@
         <v>0.65818692108729704</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B87" s="1">
         <v>8.9484335216993399E-45</v>
@@ -2211,9 +2271,9 @@
         <v>0.65588005119570603</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B88">
         <v>0.58696308066639602</v>
@@ -2228,9 +2288,9 @@
         <v>0.69195882902466899</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B89">
         <v>0.95147944948912799</v>
@@ -2245,9 +2305,9 @@
         <v>0.69289811521447398</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B90">
         <v>0.74279628214636795</v>
@@ -2262,9 +2322,9 @@
         <v>0.69189365211090204</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B91">
         <v>0.96090138078742804</v>
@@ -2279,9 +2339,9 @@
         <v>0.69267535951978598</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B92">
         <v>0.965460247010554</v>
@@ -2296,9 +2356,9 @@
         <v>0.69266045227089401</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B93">
         <v>0.93665344737401601</v>
@@ -2313,9 +2373,9 @@
         <v>0.69277666696507001</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B94">
         <v>0.99413324264224001</v>
@@ -2330,9 +2390,9 @@
         <v>0.69262411418519299</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B95">
         <v>0.84547944308213496</v>
@@ -2347,9 +2407,9 @@
         <v>0.69197928955490795</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0.63822180380681803</v>
@@ -2364,9 +2424,9 @@
         <v>0.69177351282571897</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0.205404531094871</v>
@@ -2381,9 +2441,9 @@
         <v>0.69050334811082603</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B98">
         <v>0.72456766131460604</v>
@@ -2398,9 +2458,9 @@
         <v>0.69116401317960596</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0.77241276133668102</v>
@@ -2415,9 +2475,9 @@
         <v>0.69254763947584996</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0.95161165581840401</v>
@@ -2432,9 +2492,9 @@
         <v>0.69269383834116804</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B101">
         <v>0.92773200714815496</v>
@@ -2453,4 +2513,315 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F74702-1BBC-4873-A099-87710B4347DE}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.0663387686233697E-241</v>
+      </c>
+      <c r="C2">
+        <v>0.65696195322147299</v>
+      </c>
+      <c r="D2">
+        <v>3.3851270588193198E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.85293975471199801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9.7111592768242005E-248</v>
+      </c>
+      <c r="C3">
+        <v>0.66036964706026102</v>
+      </c>
+      <c r="D3">
+        <v>6.1142171505474401E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.84404136924456197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.2080639484103599E-239</v>
+      </c>
+      <c r="C4">
+        <v>0.65400993315080602</v>
+      </c>
+      <c r="D4">
+        <v>3.9417814644244001E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.85180692404284897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.63815838441720596</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.6231893973146102E-15</v>
+      </c>
+      <c r="E5">
+        <v>0.672520775875874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6.7312026862475896E-224</v>
+      </c>
+      <c r="C6">
+        <v>0.67018595418517402</v>
+      </c>
+      <c r="D6">
+        <v>9.6014101720237992E-3</v>
+      </c>
+      <c r="E6">
+        <v>0.78368965149940095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.2287847510923799E-193</v>
+      </c>
+      <c r="C7">
+        <v>0.67901372102996804</v>
+      </c>
+      <c r="D7">
+        <v>2.6149079601012599E-3</v>
+      </c>
+      <c r="E7">
+        <v>0.77626189129910805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.0334241064054105E-128</v>
+      </c>
+      <c r="C8">
+        <v>0.67235521368317996</v>
+      </c>
+      <c r="D8">
+        <v>0.82150903555737198</v>
+      </c>
+      <c r="E8">
+        <v>0.811349465999609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.07861556109611E-125</v>
+      </c>
+      <c r="C9">
+        <v>0.67384871426196202</v>
+      </c>
+      <c r="D9">
+        <v>0.69906642808255504</v>
+      </c>
+      <c r="E9">
+        <v>0.813728775403041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.7001213861528199E-306</v>
+      </c>
+      <c r="C10">
+        <v>0.66190982472336002</v>
+      </c>
+      <c r="D10">
+        <v>0.75452557209323201</v>
+      </c>
+      <c r="E10">
+        <v>0.80416129805834102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.9199869277680499E-127</v>
+      </c>
+      <c r="C11">
+        <v>0.67149897645283396</v>
+      </c>
+      <c r="D11">
+        <v>0.83407295214907096</v>
+      </c>
+      <c r="E11">
+        <v>0.81109262990992403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.7967318383287897E-141</v>
+      </c>
+      <c r="C12">
+        <v>0.67403404295014402</v>
+      </c>
+      <c r="D12">
+        <v>0.38972362870238297</v>
+      </c>
+      <c r="E12">
+        <v>0.79691611292239795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.43587096264173E-141</v>
+      </c>
+      <c r="C13">
+        <v>0.67205103113254805</v>
+      </c>
+      <c r="D13">
+        <v>0.33991191476485899</v>
+      </c>
+      <c r="E13">
+        <v>0.79561467413863596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.66708791010942603</v>
+      </c>
+      <c r="D14">
+        <v>1.02563400789871E-3</v>
+      </c>
+      <c r="E14">
+        <v>0.76837804933429599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.60696420883077E-133</v>
+      </c>
+      <c r="C15">
+        <v>0.67179533390970503</v>
+      </c>
+      <c r="D15">
+        <v>0.86421118411890996</v>
+      </c>
+      <c r="E15">
+        <v>0.81034989445002603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8.2754196174979096E-136</v>
+      </c>
+      <c r="C16">
+        <v>0.67872856338883003</v>
+      </c>
+      <c r="D16">
+        <v>0.84612269898944203</v>
+      </c>
+      <c r="E16">
+        <v>0.810592559109795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9.7540644659330492E-127</v>
+      </c>
+      <c r="C17">
+        <v>0.67128177285591095</v>
+      </c>
+      <c r="D17">
+        <v>0.81276020569865404</v>
+      </c>
+      <c r="E17">
+        <v>0.81143181474509096</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>